--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2901A3E-989E-4803-851D-F65272485F7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372D3EAB-781B-4FC1-9781-FE9B6068DDC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>religion_id</t>
   </si>
@@ -57,6 +57,9 @@
   <si>
     <t>รหัส Religion
 ความยาวไม่เกิน 5 ตัว</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -491,17 +495,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -509,10 +502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FD5BE-9862-4474-801F-8F9202AD3B0A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -550,6 +543,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372D3EAB-781B-4FC1-9781-FE9B6068DDC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E645AE-CED9-4932-8EF8-C7FA237654B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>religion_id</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>religion_name_en</t>
-  </si>
-  <si>
-    <t>เลขที่   (null)</t>
   </si>
   <si>
     <t xml:space="preserve">ชื่อ ภาษาไทย ความยาว 100 ตัว </t>
@@ -60,6 +57,15 @@
   </si>
   <si>
     <t>05</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +157,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -470,7 +482,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -502,34 +514,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FD5BE-9862-4474-801F-8F9202AD3B0A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="29.54296875" customWidth="1"/>
-    <col min="6" max="6" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,19 +556,28 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E645AE-CED9-4932-8EF8-C7FA237654B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA46EB4-E42E-4823-AB73-1A2BCD93BAD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>religion_id</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,10 +163,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,31 +488,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -514,69 +527,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FD5BE-9862-4474-801F-8F9202AD3B0A}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" customWidth="1"/>
-    <col min="6" max="7" width="25.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.08984375" customWidth="1"/>
+    <col min="2" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" customWidth="1"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Religion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA46EB4-E42E-4823-AB73-1A2BCD93BAD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A005D-69E9-4E63-8FBE-4D6B83C09BEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>religion_id</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -148,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,9 +162,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -488,35 +479,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -527,76 +514,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92FD5BE-9862-4474-801F-8F9202AD3B0A}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" customWidth="1"/>
-    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="1" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
